--- a/XuatFile/HoaDonLê Văn C.xlsx
+++ b/XuatFile/HoaDonLê Văn C.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35C3C47-2680-4E03-AA6E-CD5220E4E1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE08C8AB-47EC-45E7-B4B1-471726C92CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{61FBD8B3-39A5-4A97-8B8F-BCF1337E7437}"/>
+    <workbookView xWindow="1404" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{37E32E1A-A14A-4CD6-A3F4-8141456CDB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">         Hóa Đơn Sân Banh     </t>
   </si>
   <si>
-    <t>Mã Hóa Đơn: 45</t>
-  </si>
-  <si>
-    <t>Ngày Lập: 7/16/2020 5:20:34 PM</t>
+    <t>Mã Hóa Đơn: 46</t>
+  </si>
+  <si>
+    <t>Ngày Lập: 7/17/2020 2:39:49 PM</t>
   </si>
   <si>
     <t>Mã Nhân Viên: A000</t>
   </si>
   <si>
-    <t>Từ Giờ: 17:19</t>
+    <t>Từ Giờ: 14:39</t>
   </si>
   <si>
     <t>Đến Giờ: 00:00</t>
@@ -58,16 +58,16 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Lavie</t>
-  </si>
-  <si>
-    <t>Tiền Sân: 668333.3333</t>
-  </si>
-  <si>
-    <t>Tổng dịch Vụ: 35,000</t>
-  </si>
-  <si>
-    <t>Tổng Tiền: 703,333</t>
+    <t>Number One</t>
+  </si>
+  <si>
+    <t>Tiền Sân: 467500.0000</t>
+  </si>
+  <si>
+    <t>Tổng dịch Vụ: 24,000</t>
+  </si>
+  <si>
+    <t>Tổng Tiền: 491,500</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8646EF65-A519-4807-99A3-3F3CF410F07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64DE24E-B195-44C0-9A03-AA97A757856A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -498,13 +498,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="3">
-        <v>35000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
